--- a/project/2023_2024_proj_auto_avaliacao.xlsx
+++ b/project/2023_2024_proj_auto_avaliacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\ist\2023_2024_UC_RC\Lab\Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alice21mota/Tecnico/3º Ano/1º Semestre/2ºPeríodo/RC/RC/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439A6C1-802A-4EFC-9FA6-B6F6847F621D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C0D596-A480-9246-9B7D-A807438EEC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19545" yWindow="-16530" windowWidth="16200" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autoavaliação" sheetId="1" r:id="rId1"/>
@@ -930,50 +930,50 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.9296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" customWidth="1"/>
     <col min="3" max="4" width="4.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.86328125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" customWidth="1"/>
-    <col min="7" max="7" width="6.06640625" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
         <v>16</v>
@@ -981,13 +981,13 @@
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
         <f>B8+F8</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="C7" s="4">
         <f>C8+G8</f>
@@ -999,13 +999,13 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM(B9:B27)</f>
-        <v>0</v>
+        <f>SUM(B10:B27)</f>
+        <v>12.5</v>
       </c>
       <c r="C8" s="4">
         <f>SUM(C9:C27)</f>
@@ -1023,11 +1023,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="8"/>
       <c r="C9" s="4">
         <v>1</v>
       </c>
@@ -1039,11 +1038,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
       <c r="C10" s="4">
         <v>0.5</v>
       </c>
@@ -1055,11 +1056,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>0.5</v>
+      </c>
       <c r="C11" s="4">
         <v>0.5</v>
       </c>
@@ -1071,11 +1074,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
@@ -1087,11 +1092,13 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -1103,11 +1110,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>0.5</v>
+      </c>
       <c r="C14" s="4">
         <v>0.25</v>
       </c>
@@ -1119,11 +1128,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>0.5</v>
+      </c>
       <c r="C15" s="4">
         <v>0.25</v>
       </c>
@@ -1135,7 +1146,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1145,11 +1156,13 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
       <c r="C17" s="4">
         <v>1.5</v>
       </c>
@@ -1161,12 +1174,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -1177,7 +1190,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1187,11 +1200,13 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
@@ -1203,11 +1218,13 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8">
+        <v>0.5</v>
+      </c>
       <c r="C22" s="18">
         <v>0.5</v>
       </c>
@@ -1219,11 +1236,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
@@ -1235,11 +1254,13 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8">
+        <v>0.5</v>
+      </c>
       <c r="C24" s="4">
         <v>0.5</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1260,11 +1281,13 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
       <c r="C26" s="4">
         <v>2</v>
       </c>
@@ -1276,202 +1299,202 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="8"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="8"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="8"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="8"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="8"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="8"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="8"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="8"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="8"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="8"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="8"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="8"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="8"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="8"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="8"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="8"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="8"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="8"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="8"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="8"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="8"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
     </row>
   </sheetData>
@@ -1490,7 +1513,7 @@
           <x14:formula1>
             <xm:f>lists!$F$3:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F17 B23 F23 F26 F12:F13 F21 B9 B12:B13</xm:sqref>
+          <xm:sqref>F17 B23 F23 F26 F12:F13 F21 B10 B12:B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="erro" error="dados inválidos" promptTitle="cotação" prompt="cotação" xr:uid="{F50FAEFF-4DC9-4A51-B433-DC7597949752}">
           <x14:formula1>
@@ -1530,13 +1553,13 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1553,7 +1576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1570,7 +1593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1587,7 +1610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -1618,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1629,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1637,7 +1660,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -1645,7 +1668,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -1653,7 +1676,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -1661,22 +1684,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>47</v>
       </c>
